--- a/Planilha financeira DANIEL.xlsx
+++ b/Planilha financeira DANIEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\projeto big data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Documents\projetinho\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="369">
   <si>
     <t>PLANILHA FINANCEIRA</t>
   </si>
@@ -1765,6 +1765,30 @@
   </si>
   <si>
     <t>QUILOMETRAGEM R$0,90</t>
+  </si>
+  <si>
+    <t>DESINSTALAÇAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCORRO </t>
+  </si>
+  <si>
+    <t>SOCORRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TROCA DE KIT</t>
+  </si>
+  <si>
+    <t>MANUTENCAO</t>
+  </si>
+  <si>
+    <t>INSTALACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUTENÇAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUTENÇÃO </t>
   </si>
 </sst>
 </file>
@@ -22506,7 +22530,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22710,7 +22734,7 @@
         <v>45236</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C7" s="54">
         <v>70</v>
@@ -22744,7 +22768,7 @@
         <v>45237</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C8" s="54">
         <v>70</v>
@@ -22812,7 +22836,7 @@
         <v>45239</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C10" s="54">
         <v>70</v>
@@ -22846,7 +22870,7 @@
         <v>45240</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>27</v>
+        <v>368</v>
       </c>
       <c r="C11" s="54">
         <v>100</v>
@@ -22880,7 +22904,7 @@
         <v>45241</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>27</v>
+        <v>368</v>
       </c>
       <c r="C12" s="54">
         <v>100</v>
@@ -22944,7 +22968,7 @@
         <v>45243</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>28</v>
+        <v>361</v>
       </c>
       <c r="C14" s="54">
         <v>160</v>
@@ -22978,7 +23002,7 @@
         <v>45244</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C15" s="54">
         <v>70</v>
@@ -23012,7 +23036,7 @@
         <v>45245</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="C16" s="54">
         <v>120</v>
@@ -23110,7 +23134,7 @@
         <v>45248</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>31</v>
+        <v>363</v>
       </c>
       <c r="C19" s="54">
         <v>240</v>
@@ -23426,7 +23450,7 @@
         <v>45258</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>33</v>
+        <v>364</v>
       </c>
       <c r="C29" s="54">
         <v>120</v>
@@ -23554,7 +23578,7 @@
         <v>45262</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C33" s="54">
         <v>260</v>
@@ -23618,7 +23642,7 @@
         <v>45264</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C35" s="54">
         <v>120</v>
@@ -23652,7 +23676,7 @@
         <v>45265</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="C36" s="54">
         <v>100</v>
@@ -23686,7 +23710,7 @@
         <v>45266</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>39</v>
+        <v>366</v>
       </c>
       <c r="C37" s="54">
         <v>220</v>
@@ -23778,7 +23802,7 @@
         <v>45269</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>40</v>
+        <v>366</v>
       </c>
       <c r="C40" s="54">
         <v>200</v>
@@ -23968,7 +23992,7 @@
         <v>45275</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="C46" s="54">
         <v>100</v>
@@ -24122,7 +24146,7 @@
         <v>45280</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="C51" s="54">
         <v>200</v>
@@ -24188,7 +24212,7 @@
         <v>45282</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="C53" s="54">
         <v>180</v>
@@ -24370,7 +24394,7 @@
         <v>45288</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C59" s="54">
         <v>100</v>
@@ -24404,7 +24428,7 @@
         <v>45289</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C60" s="54">
         <v>100</v>

--- a/Planilha financeira DANIEL.xlsx
+++ b/Planilha financeira DANIEL.xlsx
@@ -22529,7 +22529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
